--- a/spreadsheet/macrofree/azureapplicationgateway_sg_checklist.en.xlsx
+++ b/spreadsheet/macrofree/azureapplicationgateway_sg_checklist.en.xlsx
@@ -1061,12 +1061,12 @@
       <c r="B8" s="21" t="n"/>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Plan for rule updates</t>
+          <t>Deploy Application Gateway instances in a zone-aware configuration.  Check regional support for zone redundancy because not all regions offer this feature.</t>
         </is>
       </c>
       <c r="D8" s="21" t="inlineStr">
         <is>
-          <t>Plan enough time for updates before accessing Application Gateway or making further changes. For example, removing servers from backend pool might take some time because they have to drain existing connections.</t>
+          <t>When you spread multiple instances across zones, your workload can withstand failures in a single zone. If you have an unavailable zone, traffic automatically shifts to healthy instances in other zones, which maintains application reliability.</t>
         </is>
       </c>
       <c r="E8" s="21" t="n"/>
@@ -1082,7 +1082,7 @@
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>9a17eb2b-c5e3-428b-9e45-73dead45c4f9</t>
+          <t>a36e2517-aa81-4e4b-9962-e78144b18ac7</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1095,12 +1095,12 @@
       <c r="B9" s="21" t="n"/>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Use health probes to detect backend unavailability</t>
+          <t>Use Application Gateway health probes to detect back-end unavailability.</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>If Application Gateway is used to load balance incoming traffic over multiple backend instances, we recommend the use of health probes. These will ensure that traffic is not routed to backends that are unable to handle the traffic.</t>
+          <t>Health probes ensure that traffic only routes to back ends that can handle the traffic. Application Gateway monitors the health of all the servers in its back-end pool and automatically stops sending traffic to any server that it considers unhealthy.</t>
         </is>
       </c>
       <c r="E9" s="21" t="n"/>
@@ -1116,7 +1116,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>5bfa95df-20d8-4452-a6c1-79c88b07d4cc</t>
+          <t>9afcdcea-4d65-4d51-9008-297c2c363625</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1129,12 +1129,12 @@
       <c r="B10" s="21" t="n"/>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Review the impact of the interval and threshold settings on health probes</t>
+          <t>Configure rate-limiting rules for Azure WAF so that clients can't send too much traffic to your application.</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>The health probe sends requests to the configured endpoint at a set interval. Also, there's a threshold of failed requests that will be tolerated before the backend is marked unhealthy. These numbers present a trade-off.- Setting a higher interval puts a higher load on your service. Each Application Gateway instance sends its own health probes, so 100 instances every 30 seconds means 100 requests per 30 seconds.- Setting a lower interval leaves more time before an outage is detected.- Setting a low unhealthy threshold might mean that short, transient failures might take down a backend. - Setting a high threshold it can take longer to take a backend out of rotation.</t>
+          <t>Use rate limiting to avoid problems like retry storms.</t>
         </is>
       </c>
       <c r="E10" s="21" t="n"/>
@@ -1150,7 +1150,7 @@
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>ec5bc6c4-6176-44a2-860e-8654f588effd</t>
+          <t>7bcec0ab-ea83-427d-ae8c-946bf662ece6</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1163,12 +1163,12 @@
       <c r="B11" s="21" t="n"/>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Verify downstream dependencies through health endpoints</t>
+          <t>Don't use UDRs on Application Gateway so that the back-end health report functions properly and generates the correct logs and metrics.  If you must use a UDR in the Application Gateway subnet, see Supported UDRs.</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>Suppose each backend has its own dependencies to ensure failures are isolated. For example, an application hosted behind Application Gateway might have multiple backends, each connected to a different database (replica). When such a dependency fails, the application might be working but won't return valid results. For that reason, the health endpoint should ideally validate all dependencies. Keep in mind that if each call to the health endpoint has a direct dependency call, that database would receive 100 queries every 30 seconds instead of 1. To avoid this, the health endpoint should cache the state of the dependencies for a short period of time.</t>
+          <t>UDRs on the Application Gateway subnet can cause some problems. Don't use UDRs on the Application Gateway subnet so that you can view the back-end health, logs, and metrics.</t>
         </is>
       </c>
       <c r="E11" s="21" t="n"/>
@@ -1184,7 +1184,7 @@
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>78bc5274-ca88-4e2a-8d3a-7b6a5ed1ccd6</t>
+          <t>b2881b32-11c9-4bec-94d0-255ec577fdab</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1197,12 +1197,12 @@
       <c r="B12" s="21" t="n"/>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Application Gateway to protect `HTTP/S` applications, use WAF policies in Front Door and lock down Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Configure the IdleTimeout settings to match the listener and traffic characteristics of the back-end application. The default value is four minutes. You can configure it to a maximum of 30 minutes.  For more information, see Load balancer Transmission Control Protocol (TCP) reset and idle timeout.</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>Certain scenarios can force you to implement rules specifically on Application Gateway. For example, if ModSec CRS 2.2.9, CRS 3.0 or CRS 3.1 rules are required, these rules can be only implemented on Application Gateway. Conversely, rate-limiting and geo-filtering are available only on Azure Front Door, not on AppGateway.</t>
+          <t>Set the IdleTimeout to match the back end. This setting ensures that the connection between Application Gateway and the client stays open if the back end takes more than four minutes to respond to the request. If you don't configure this setting, the connection closes, and the client doesn't see the back-end response.</t>
         </is>
       </c>
       <c r="E12" s="21" t="n"/>
@@ -1218,7 +1218,7 @@
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>da7234f3-70a7-47d2-b685-3e47843003e9</t>
+          <t>0719fb38-2436-415b-8db7-3d19a1e57bee</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1231,12 +1231,12 @@
       <c r="B13" s="21" t="n"/>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Set up a TLS policy for enhanced security</t>
+          <t>Set up a TLS policy for enhanced security. Ensure that you use the latest TLS policy version.</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>Set up a TLS policy for extra security. Ensure you're always using the latest TLS policy version available. This enforces TLS 1.2 and stronger ciphers.</t>
+          <t>Use the latest TLS policy to enforce the use of TLS 1.2 and stronger ciphers. The TLS policy includes control of the TLS protocol version and the cipher suites and also the order in which a TLS handshake uses ciphers.</t>
         </is>
       </c>
       <c r="E13" s="21" t="n"/>
@@ -1252,7 +1252,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>9e5ba3b9-3512-425b-95e3-d5009e7630f3</t>
+          <t>8e0ffc7d-aecb-456f-8a8a-6cbd5743e076</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1265,12 +1265,12 @@
       <c r="B14" s="21" t="n"/>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Use AppGateway for TLS termination</t>
+          <t>Use Application Gateway for TLS termination.</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>There are advantages of using Application Gateway for TLS termination:- Performance improves because requests going to different backends to have to re-authenticate to each backend.- Better utilization of backend servers because they don't have to perform TLS processing- Intelligent routing by accessing the request content.- Easier certificate management because the certificate only needs to be installed on Application Gateway.</t>
+          <t>Performance improves because requests that go to different back ends don't have to reauthenticate to each back end. The gateway can access the request content and make intelligent routing decisions. You only need to install the certificate on Application Gateway, which simplifies certificate management.</t>
         </is>
       </c>
       <c r="E14" s="21" t="n"/>
@@ -1286,7 +1286,7 @@
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>5cbd84eb-56a7-4d18-9f50-de47d3b29a8f</t>
+          <t>0534341b-03de-4eb4-9fbb-47806be1958d</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1299,12 +1299,12 @@
       <c r="B15" s="21" t="n"/>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store TLS certificates</t>
+          <t>Integrate Application Gateway with Key Vault to store TLS certificates.</t>
         </is>
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway can be integrated with Key Vault. This provides stronger security, easier separation of roles and responsibilities, support for managed certificates, and an easier certificate renewal and rotation process.</t>
+          <t>This approach provides stronger security, easier separation of roles and responsibilities, support for managed certificates, and an easier certificate renewal and rotation process.</t>
         </is>
       </c>
       <c r="E15" s="21" t="n"/>
@@ -1320,7 +1320,7 @@
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>c1e7b351-a459-49d1-b473-a1f663310205</t>
+          <t>14551ef6-ea58-410f-bb9b-08a0c10381a8</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1333,12 +1333,12 @@
       <c r="B16" s="21" t="n"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>When re-encrypting backend traffic, ensure the backend server certificate contains both the root and intermediate Certificate Authorities (CAs)</t>
+          <t>Comply with all NSG restrictions for Application Gateway.</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>A TLS certificate of the backend server must be issued by a well-known CA. If the certificate was not issued by a trusted CA, the Application Gateway checks if the certificate was issued by a trusted CA, and so on, until a trusted CA certificate is found. Only then a secure connection is established. Otherwise, Application Gateway marks the backend as unhealthy.</t>
+          <t>The Application Gateway subnet supports NSGs, but there are some restrictions. For instance, some communication with certain port ranges is prohibited. Make sure you understand the implications of those restrictions.</t>
         </is>
       </c>
       <c r="E16" s="21" t="n"/>
@@ -1354,7 +1354,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>1f53df88-090e-4f67-8a41-866ea4938cb1</t>
+          <t>6febf0db-32d2-4e89-a3fd-debec3a426dd</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1367,12 +1367,12 @@
       <c r="B17" s="21" t="n"/>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Use an appropriate DNS server for backend pool resources</t>
+          <t>Stop Application Gateway instances when they're not in use. For more information, see Stop-AzApplicationGateway and Start-AzApplicationGateway.</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>When the backend pool contains a resolvable FQDN, the DNS resolution is based on a private DNS zone or custom DNS server (if configured on the VNet), or it uses the default Azure-provided DNS.</t>
+          <t>A stopped Application Gateway instance doesn't incur costs. Application Gateway instances that continuously run can incur unnecessary costs. Evaluate usage patterns, and stop instances when you don't need them. For example, expect low usage after business hours in dev/test environments.</t>
         </is>
       </c>
       <c r="E17" s="21" t="n"/>
@@ -1388,7 +1388,7 @@
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>0e1af02a-017b-4a41-a7e5-98b47d7b1fd7</t>
+          <t>147308ab-aa3c-4724-b314-5820ebe6a0ee</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1401,12 +1401,12 @@
       <c r="B18" s="21" t="n"/>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Comply with all NSG restrictions for Application Gateway</t>
+          <t>Monitor key cost driver Application Gateway metrics, like: - Estimated billed capacity units.  - Fixed billable capacity units. - Current capacity units.  Make sure you account for bandwidth costs.</t>
         </is>
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>NSGs are supported on Application Gateway subnet, but there are some restrictions. For instance, some communication with certain port ranges is prohibited. Make sure you understand the implications of those restrictions. For details, see Network security groups.</t>
+          <t>Use these metrics to validate whether the provisioned instance count matches the amount of incoming traffic, and ensure that you fully utilize the allocated resources.</t>
         </is>
       </c>
       <c r="E18" s="21" t="n"/>
@@ -1422,7 +1422,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>75da1adb-f8a2-4ad5-879a-a8552d1c836a</t>
+          <t>1946aefd-0576-40b2-a8ed-58265dc9dcf0</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1435,12 +1435,12 @@
       <c r="B19" s="21" t="n"/>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Refrain from using UDRs on the Application gateway subnet</t>
+          <t>Configure alerts to notify your team when capacity metrics, like CPU usage and compute unit usage, cross recommended thresholds.  To configure a comprehensive set of alerts based on capacity metrics, see Application Gateway high-traffic support.</t>
         </is>
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>Using User Defined Routes (UDR) on the Application Gateway subnet can cause some issues. Health status in the back-end might be unknown. Application Gateway logs and metrics might not get generated. We recommend that you don't use UDRs on the Application Gateway subnet so that you can view the back-end health, logs, and metrics. If your organizations require to use UDR in the Application Gateway subnet, please ensure you review the supported scenarios. For more information, see Supported user-defined routes.</t>
+          <t>Set alerts when metrics cross thresholds so that you know when your usage increases. This approach ensures that you have enough time to implement necessary changes to your workload and prevents degradation or outages.</t>
         </is>
       </c>
       <c r="E19" s="21" t="n"/>
@@ -1456,7 +1456,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>7776e1c9-a0a7-4fd5-8fe9-1b2b9c56cf31</t>
+          <t>aa1eacb3-ef9f-4e69-bc98-784ec67d1192</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1469,12 +1469,12 @@
       <c r="B20" s="21" t="n"/>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Be aware of Application Gateway capacity changes when enabling WAF</t>
+          <t>Configure alerts to notify your team about metrics that indicate problems either at Application Gateway or the back end. We recommend that you evaluate the following alerts:- Unhealthy host count- Response status, such as 4xx and 5xx errors - Back-end response status, such as 4xx and 5xx errors - Back-end last byte response time- Application Gateway total timeFor more information, see Metrics for Application Gateway.</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>When WAF is enabled, every request must be buffered by the Application Gateway until it fully arrives, checks if the request matches with any rule violation in its core rule set, and then forwards the packet to the backend instances. When there are large file uploads (30MB+ in size), it can result in a significant latency. Because Application Gateway capacity requirements are different with WAF, we do not recommend enabling WAF on Application Gateway without proper testing and validation.</t>
+          <t>Use alerts to help ensure that your team can respond to problems in a timely manner and facilitate troubleshooting.</t>
         </is>
       </c>
       <c r="E20" s="21" t="n"/>
@@ -1490,7 +1490,7 @@
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>7c173790-6fac-43bc-b1b4-e787fdbb904f</t>
+          <t>91992f80-fca7-48ad-85bc-3bad00352475</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1503,12 +1503,12 @@
       <c r="B21" s="21" t="n"/>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Familiarize yourself with Application Gateway pricing</t>
+          <t>Enable diagnostic logs on Application Gateway and WAF to collect firewall logs, performance logs, and access logs.</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>For information about Application Gateway pricing, see Understanding Pricing for Azure Application Gateway and Web Application Firewall. You can also leverage the Pricing calculator.Ensure that the options are adequately sized to meet the capacity demand and deliver expected performance without wasting resources.</t>
+          <t>Use logs to help detect, investigate, and troubleshoot problems with Application Gateway instances and your workload.</t>
         </is>
       </c>
       <c r="E21" s="21" t="n"/>
@@ -1524,7 +1524,7 @@
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>13adc786-048a-4720-9aad-610419507199</t>
+          <t>59ddc80c-f93b-488b-814d-270a4ad7786d</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1537,12 +1537,12 @@
       <c r="B22" s="21" t="n"/>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Review underutilized resources</t>
+          <t>Use Advisor to monitor Key Vault configuration problems. Set an alert to notify your team when you get the recommendation that states Resolve Azure Key Vault issue for your Application Gateway.</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>Identify and delete Application Gateway instances with empty backend pools to avoid unnecessary costs.</t>
+          <t>Use Advisor alerts to stay up to date and fix problems immediately. Prevent any control plane or data plane-related problems.  Application Gateway checks for the renewed certificate version in the linked Key Vault instance every 4 hours. If the certificate version is inaccessible because of an incorrect Key Vault configuration, it logs that error and pushes a corresponding Advisor recommendation.</t>
         </is>
       </c>
       <c r="E22" s="21" t="n"/>
@@ -1558,7 +1558,7 @@
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>8d3979f9-bd25-4455-9e2f-2cc7e0deaf5e</t>
+          <t>88daf0df-5324-450c-ae59-e8d3f12f697a</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1571,12 +1571,12 @@
       <c r="B23" s="21" t="n"/>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Stop Application Gateway instances when not in use</t>
+          <t>Set the minimum instance count to an optimal level based on you estimated instance count, actual Application Gateway autoscaling trends, and your application patterns.  Check the current compute units for the past month. This metric represents the gateway's CPU usage. To define the minimum instance count, divide the peak usage by 10. For example, if your average current compute units in the past month is 50, set the minimum instance count to five.</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>You aren't billed when Application Gateway is in the stopped state. Continuously running Application Gateway instances can incur extraneous costs. Evaluate usage patterns and stop instances when you don't need them. For example, usage after business hours in Dev/Test environments is expected to be low.See these articles for information about how to stop and start instances.- Stop-AzApplicationGateway- Start-AzApplicationGateway</t>
+          <t>For Application Gateway v2, autoscaling takes approximately six to seven minutes before the extra set of instances are ready to serve traffic. During that time, if Application Gateway has short spikes in traffic, expect transient latency or loss of traffic.</t>
         </is>
       </c>
       <c r="E23" s="21" t="n"/>
@@ -1592,7 +1592,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>fc01794b-1808-4152-a82c-95b43b2a4c45</t>
+          <t>1c9a7b2a-0e95-4416-8af5-4d173c48870e</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1605,12 +1605,12 @@
       <c r="B24" s="21" t="n"/>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Have a scale-in and scale-out policy</t>
+          <t>Set the maximum autoscale instance count to the maximum possible, which is 125 instances. Make sure that the Application Gateway dedicated subnet has sufficient available IP addresses to support the increased set of instances.</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>A scale-out policy ensures that there will be enough instances to handle incoming traffic and spikes. Also, have a scale-in policy that makes sure the number of instances are reduced when demand drops. Consider the choice of instance size. The size can significantly impact the cost. Some considerations are described in the Estimate the Application Gateway instance count.For more information, see What is Azure Application Gateway v2?</t>
+          <t>Application Gateway can scale out as needed to handle increased traffic to your applications. This setting doesn't increase cost because you only pay for the consumed capacity.</t>
         </is>
       </c>
       <c r="E24" s="21" t="n"/>
@@ -1626,7 +1626,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>4e5743d9-44ec-4a09-9c80-d77056109fc6</t>
+          <t>2b1242f0-cf07-48fa-8567-63a11efd6d13</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1639,12 +1639,12 @@
       <c r="B25" s="21" t="n"/>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Review consumption metrics across different parameters</t>
+          <t>Appropriately size the Application Gateway dedicated subnet. We highly recommend a /24 subnet for an Application Gateway v2 deployment.  If you want to deploy other Application Gateway resources in the same subnet, consider the extra IP addresses that you require for the maximum instance count.  For more considerations about sizing the subnet, see Application Gateway infrastructure configuration.</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>You're billed based on metered instances of Application Gateway based on the metrics tracked by Azure. Evaluate the various metrics and capacity units and determine the cost drivers. For more information, see Microsoft Cost Management and Billing. The following metrics are key for Application Gateway. This information can be used to validate that the provisioned instance count matches the amount of incoming traffic.- Estimated Billed Capacity Units- Fixed Billable Capacity Units- Current Capacity UnitsFor more information, see Application Gateway metrics.Make sure you account for bandwidth costs.</t>
+          <t>Use a /24 subnet to provide support for all IP addresses that your Application Gateway v2 deployment needs.  Application Gateway uses one private IP address for each instance and another private IP address if you configure a private front-end IP. The Standard_v2 or WAF_v2 SKU can support up to 125 instances. Azure reserves five IP addresses in each subnet for internal use.</t>
         </is>
       </c>
       <c r="E25" s="21" t="n"/>
@@ -1660,7 +1660,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>30129a61-cd84-4085-9533-5d42f89372d9</t>
+          <t>bd29ba93-56b6-43cc-9546-8aace18d45e5</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1671,32 +1671,15 @@
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="21" t="n"/>
       <c r="B26" s="21" t="n"/>
-      <c r="C26" s="21" t="inlineStr">
-        <is>
-          <t>Monitor capacity metrics</t>
-        </is>
-      </c>
-      <c r="D26" s="21" t="inlineStr">
-        <is>
-          <t>Use these metrics as indicators of utilization of the provisioned Application Gateway capacity. We strongly recommend setting up alerts on capacity. For details, see Application Gateway high traffic support.</t>
-        </is>
-      </c>
+      <c r="C26" s="21" t="n"/>
+      <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="n"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="n"/>
       <c r="I26" s="15" t="n"/>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
-      <c r="L26" s="25" t="inlineStr">
-        <is>
-          <t>57cc0c49-939f-46d9-864e-d7ce31733771</t>
-        </is>
-      </c>
+      <c r="L26" s="25" t="n"/>
       <c r="M26" s="25" t="n"/>
       <c r="N26" s="25" t="n"/>
       <c r="O26" s="25" t="n"/>
@@ -1705,31 +1688,14 @@
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="21" t="n"/>
       <c r="B27" s="21" t="n"/>
-      <c r="C27" s="21" t="inlineStr">
-        <is>
-          <t>Troubleshoot using metrics</t>
-        </is>
-      </c>
-      <c r="D27" s="21" t="inlineStr">
-        <is>
-          <t>There are other metrics that can indicate issues either at Application Gateway or the backend. We recommend evaluating the following alerts:- Unhealthy Host Count- Response Status (dimension 4xx and 5xx)- Backend Response Status (dimension 4xx and 5xx)- Backend Last Byte Response Time- Application Gateway Total TimeFor more information, see Metrics for Application Gateway.</t>
-        </is>
-      </c>
+      <c r="C27" s="21" t="n"/>
+      <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="n"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="n"/>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
-      <c r="L27" s="25" t="inlineStr">
-        <is>
-          <t>071e5241-c008-41a2-9e62-c056081158d2</t>
-        </is>
-      </c>
+      <c r="L27" s="25" t="n"/>
       <c r="M27" s="25" t="n"/>
       <c r="N27" s="25" t="n"/>
       <c r="O27" s="25" t="n"/>
@@ -1738,31 +1704,14 @@
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="21" t="n"/>
       <c r="B28" s="21" t="n"/>
-      <c r="C28" s="21" t="inlineStr">
-        <is>
-          <t>Enable diagnostics on Application Gateway and Web Application Firewall (WAF)</t>
-        </is>
-      </c>
-      <c r="D28" s="21" t="inlineStr">
-        <is>
-          <t>Diagnostic logs allow you to view firewall logs, performance logs, and access logs. Use these logs to manage and troubleshoot issues with Application Gateway instances. For more information, see Back-end health and diagnostic logs for Application Gateway.</t>
-        </is>
-      </c>
+      <c r="C28" s="21" t="n"/>
+      <c r="D28" s="21" t="n"/>
       <c r="E28" s="21" t="n"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="n"/>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
-      <c r="L28" s="25" t="inlineStr">
-        <is>
-          <t>7e160588-dc1c-48d5-9a56-4ddc6aeb8fc2</t>
-        </is>
-      </c>
+      <c r="L28" s="25" t="n"/>
       <c r="M28" s="25" t="n"/>
       <c r="N28" s="25" t="n"/>
       <c r="O28" s="25" t="n"/>
@@ -1771,31 +1720,14 @@
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="21" t="n"/>
       <c r="B29" s="21" t="n"/>
-      <c r="C29" s="21" t="inlineStr">
-        <is>
-          <t>Use Azure Monitor Network Insights</t>
-        </is>
-      </c>
-      <c r="D29" s="21" t="inlineStr">
-        <is>
-          <t>Azure Monitor Network Insights provides a comprehensive view of health and metrics for network resources, including Application Gateway. For additional details and supported capabilities for Application Gateway, see Azure Monitor Network insights.</t>
-        </is>
-      </c>
+      <c r="C29" s="21" t="n"/>
+      <c r="D29" s="21" t="n"/>
       <c r="E29" s="21" t="n"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="n"/>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
-      <c r="L29" s="25" t="inlineStr">
-        <is>
-          <t>260dc49f-05b9-4c43-9cda-afc5b1923c89</t>
-        </is>
-      </c>
+      <c r="L29" s="25" t="n"/>
       <c r="M29" s="25" t="n"/>
       <c r="N29" s="25" t="n"/>
       <c r="O29" s="25" t="n"/>
@@ -1804,31 +1736,14 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="n"/>
       <c r="B30" s="21" t="n"/>
-      <c r="C30" s="21" t="inlineStr">
-        <is>
-          <t>Match timeout settings with the backend application</t>
-        </is>
-      </c>
-      <c r="D30" s="21" t="inlineStr">
-        <is>
-          <t>Ensure you have configured the IdleTimeout settings to match the listener and traffic characteristics of the backend application. The default value is set to four minutes and can be configured to a maximum of 30. For more information, see Load Balancer TCP Reset and Idle Timeout.For workload considerations, see Monitoring application health for reliability.</t>
-        </is>
-      </c>
+      <c r="C30" s="21" t="n"/>
+      <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="n"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="n"/>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
-      <c r="L30" s="25" t="inlineStr">
-        <is>
-          <t>8c5e5e8f-44d7-4494-8819-c1d765838fec</t>
-        </is>
-      </c>
+      <c r="L30" s="25" t="n"/>
       <c r="M30" s="25" t="n"/>
       <c r="N30" s="25" t="n"/>
       <c r="O30" s="25" t="n"/>
@@ -1837,31 +1752,14 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="21" t="n"/>
       <c r="B31" s="21" t="n"/>
-      <c r="C31" s="21" t="inlineStr">
-        <is>
-          <t>Monitor Key Vault configuration issues using Azure Advisor</t>
-        </is>
-      </c>
-      <c r="D31" s="21" t="inlineStr">
-        <is>
-          <t>Application Gateway checks for the renewed certificate version in the linked Key Vault at every 4-hour interval. If it is inaccessible due to any incorrect Key Vault configuration, it logs that error and pushes a corresponding Advisor recommendation. You must configure the Advisor alerts to stay updated and fix such issues immediately to avoid any Control or Data plane related problems. For more information, see Investigating and resolving key vault errors. To set an alert for this specific case, use the Recommendation Type as Resolve Azure Key Vault issue for your Application Gateway.</t>
-        </is>
-      </c>
+      <c r="C31" s="21" t="n"/>
+      <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="n"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="n"/>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
-      <c r="L31" s="25" t="inlineStr">
-        <is>
-          <t>4123369e-cbd7-472d-9879-e155476c2595</t>
-        </is>
-      </c>
+      <c r="L31" s="25" t="n"/>
       <c r="M31" s="25" t="n"/>
       <c r="N31" s="25" t="n"/>
       <c r="O31" s="25" t="n"/>
@@ -1870,32 +1768,15 @@
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="21" t="n"/>
       <c r="B32" s="21" t="n"/>
-      <c r="C32" s="21" t="inlineStr">
-        <is>
-          <t>Consider SNAT port limitations in your design</t>
-        </is>
-      </c>
-      <c r="D32" s="21" t="inlineStr">
-        <is>
-          <t>SNAT port limitations are important for backend connections on the Application Gateway. There are separate factors that affect how Application Gateway reaches the SNAT port limit. For example, if the backend is a public IP address, it will require its own SNAT port. In order to avoid SNAT port limitations, you can increase the number of instances per Application Gateway, scale out the backends to have more IP addresses, or move your backends into the same virtual network and use private IP addresses for the backends.Requests per second (RPS) on the Application Gateway will be affected if the SNAT port limit is reached. For example, if an Application Gateway reaches the SNAT port limit, then it won't be able to open a new connection to the backend, and the request will fail.</t>
-        </is>
-      </c>
+      <c r="C32" s="21" t="n"/>
+      <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="n"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="n"/>
       <c r="I32" s="15" t="n"/>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
-      <c r="L32" s="25" t="inlineStr">
-        <is>
-          <t>d2713c48-1e6f-4ee8-b91c-8499e7146945</t>
-        </is>
-      </c>
+      <c r="L32" s="25" t="n"/>
       <c r="M32" s="25" t="n"/>
       <c r="N32" s="25" t="n"/>
       <c r="O32" s="25" t="n"/>
@@ -1904,32 +1785,15 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="n"/>
       <c r="B33" s="21" t="n"/>
-      <c r="C33" s="21" t="inlineStr">
-        <is>
-          <t>Define the minimum instance count</t>
-        </is>
-      </c>
-      <c r="D33" s="21" t="inlineStr">
-        <is>
-          <t>For Application Gateway v2 SKU, autoscaling takes some time (approximately six to seven minutes) before the additional set of instances is ready to serve traffic. During that time, if there are short spikes in traffic, expect transient latency or loss of traffic.We recommend that you set your minimum instance count to an optimal level. After you estimate the average instance count and determine your Application Gateway autoscaling trends, define the minimum instance count based on your application patterns. For information, see Application Gateway high traffic support.Check the Current Compute Units for the past one month. This metric represents the gateway's CPU utilization. To define the minimum instance count, divide the peak usage by 10. For example, if your average Current Compute Units in the past month is 50, set the minimum instance count to five.</t>
-        </is>
-      </c>
+      <c r="C33" s="21" t="n"/>
+      <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="n"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="n"/>
       <c r="I33" s="15" t="n"/>
       <c r="J33" s="22" t="n"/>
       <c r="K33" s="23" t="n"/>
-      <c r="L33" s="25" t="inlineStr">
-        <is>
-          <t>8bba115b-e086-458e-beca-ae9d8144a1f6</t>
-        </is>
-      </c>
+      <c r="L33" s="25" t="n"/>
       <c r="M33" s="25" t="n"/>
       <c r="N33" s="25" t="n"/>
       <c r="O33" s="25" t="n"/>
@@ -1938,32 +1802,15 @@
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="21" t="n"/>
       <c r="B34" s="21" t="n"/>
-      <c r="C34" s="21" t="inlineStr">
-        <is>
-          <t>Define the maximum instance count</t>
-        </is>
-      </c>
-      <c r="D34" s="21" t="inlineStr">
-        <is>
-          <t>We recommend 125 as the maximum autoscale instance count. Make sure the subnet that has the Application Gateway has sufficient available IP addresses to support the scale-up set of instances.Setting the maximum instance count to 125 has no cost implications because you're billed only for the consumed capacity.</t>
-        </is>
-      </c>
+      <c r="C34" s="21" t="n"/>
+      <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="n"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="n"/>
       <c r="I34" s="15" t="n"/>
       <c r="J34" s="22" t="n"/>
       <c r="K34" s="22" t="n"/>
-      <c r="L34" s="25" t="inlineStr">
-        <is>
-          <t>1250aa80-2761-4138-9565-57735472779b</t>
-        </is>
-      </c>
+      <c r="L34" s="25" t="n"/>
       <c r="M34" s="25" t="n"/>
       <c r="N34" s="25" t="n"/>
       <c r="O34" s="25" t="n"/>
@@ -1972,32 +1819,15 @@
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="21" t="n"/>
       <c r="B35" s="21" t="n"/>
-      <c r="C35" s="21" t="inlineStr">
-        <is>
-          <t>Define Application Gateway subnet size</t>
-        </is>
-      </c>
-      <c r="D35" s="21" t="inlineStr">
-        <is>
-          <t>Application Gateway needs a dedicated subnet within a virtual network. The subnet can have multiple instances of the deployed Application Gateway resource. You can also deploy other Application Gateway resources in that subnet, v1 or v2 SKU.Here are some considerations for defining the subnet size:- Application Gateway uses one private IP address per instance and another private IP address if a private front-end IP is configured.- Azure reserves five IP addresses in each subnet for internal use.- Application Gateway (Standard or WAF SKU) can support up to 32 instances. Taking 32 instance IP addresses + 1 private front-end IP + 5 Azure reserved, a minimum subnet size of /26 is recommended. Because the Standard_v2 or WAF_v2 SKU can support up to 125 instances, using the same calculation, a subnet size of /24 is recommended.- If you want to deploy additional Application Gateway resources in the same subnet, consider the additional IP addresses that will be required for their maximum instance count for both, Standard and Standard v2.</t>
-        </is>
-      </c>
+      <c r="C35" s="21" t="n"/>
+      <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="n"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="n"/>
       <c r="I35" s="15" t="n"/>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
-      <c r="L35" s="25" t="inlineStr">
-        <is>
-          <t>dbf3ca82-d3a8-431e-a86e-65df49c72032</t>
-        </is>
-      </c>
+      <c r="L35" s="25" t="n"/>
       <c r="M35" s="25" t="n"/>
       <c r="N35" s="25" t="n"/>
       <c r="O35" s="25" t="n"/>
@@ -2006,32 +1836,15 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="n"/>
       <c r="B36" s="21" t="n"/>
-      <c r="C36" s="21" t="inlineStr">
-        <is>
-          <t>Take advantage of features for autoscaling and performance benefits</t>
-        </is>
-      </c>
-      <c r="D36" s="21" t="inlineStr">
-        <is>
-          <t>The v2 SKU offers autoscaling to ensure that your Application Gateway can scale up as traffic increases. When compared to v1 SKU, v2 has capabilities that enhance the performance of the workload. For example, better TLS offload performance, quicker deployment and update times, zone redundancy, and more. For more information about autoscaling features, see Scaling Application Gateway v2 and WAF v2.If you are running v1 SKU Application gateway, consider migrating to the Application gateway v2 SKU. For more information, see Migrate Azure Application Gateway and Web Application Firewall from v1 to v2.</t>
-        </is>
-      </c>
+      <c r="C36" s="21" t="n"/>
+      <c r="D36" s="21" t="n"/>
       <c r="E36" s="21" t="n"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="n"/>
       <c r="I36" s="15" t="n"/>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
-      <c r="L36" s="25" t="inlineStr">
-        <is>
-          <t>dffdc8e9-9139-46c1-93df-638e00cb3657</t>
-        </is>
-      </c>
+      <c r="L36" s="25" t="n"/>
       <c r="M36" s="25" t="n"/>
       <c r="N36" s="25" t="n"/>
       <c r="O36" s="25" t="n"/>
@@ -6300,7 +6113,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F37" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F26" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
